--- a/PCB REV C/BUILD/LPC55S69_MINI-[C]/LPC55S69_MINI-[C] Assembly BOM.xlsx
+++ b/PCB REV C/BUILD/LPC55S69_MINI-[C]/LPC55S69_MINI-[C] Assembly BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliHughes\AppData\Local\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emh20\AppData\Local\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9880692E-2DDB-4843-9381-49A20B9D259C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{072C0BF1-8051-42C2-B5F7-23D1F97A432A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="2535" windowWidth="22545" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20025" yWindow="2025" windowWidth="28485" windowHeight="16950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly BOM" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="125">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -52,6 +52,36 @@
     <t>Designator</t>
   </si>
   <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
     <t>C5, C7, C8, C9, C11, C12, C13</t>
   </si>
   <si>
@@ -64,9 +94,6 @@
     <t>R1, R3, R4, R7, R8, R11</t>
   </si>
   <si>
-    <t>U7</t>
-  </si>
-  <si>
     <t>C14, C15</t>
   </si>
   <si>
@@ -88,37 +115,16 @@
     <t>D1, D2, D3</t>
   </si>
   <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
     <t>J4</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>Q1, Q2</t>
+    <t>Q1</t>
   </si>
   <si>
     <t>U4</t>
@@ -127,15 +133,42 @@
     <t>J1</t>
   </si>
   <si>
-    <t>U6</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>1.54" 240x240 IPS Display</t>
+  </si>
+  <si>
+    <t>20Hz ~ 10kHz Digital, I²S Microphone MEMS (Silicon) 1.8V Omnidirectional (-26dB ±3dB @ 94dB SPL) Solder Pads</t>
+  </si>
+  <si>
+    <t>Charge Controller Li-Ion/Li-Pol 15mA to 500mA 4.2V 5-Pin SOT-23 T/R</t>
+  </si>
+  <si>
+    <t>Crystal 16MHz ±20ppm (Tol) ±50ppm (Stability) 18pF FUND 50Ohm 2-Pin CSMD T/R</t>
+  </si>
+  <si>
+    <t>FERRITE BEAD 220 OHM 0402 1LN</t>
+  </si>
+  <si>
+    <t>FIXED IND 4.7UH 520MA 650 MOHM</t>
+  </si>
+  <si>
+    <t>IC MCU 100MHZ CORTEX M33 DUAL</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V 300MA SOT23-5</t>
+  </si>
+  <si>
+    <t>IC TXRX RS422/485 20MBPS 10MSOP</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 20V 0.9A SOT-23</t>
+  </si>
+  <si>
     <t>CAP CER 0.1UF 16V X7R 0402</t>
   </si>
   <si>
@@ -148,9 +181,6 @@
     <t>RES 10K OHM 1/10W 1% 0402 SMD</t>
   </si>
   <si>
-    <t>Crystal 16MHz ±20ppm (Tol) ±50ppm (Stability) 18pF FUND 50Ohm 2-Pin CSMD T/R</t>
-  </si>
-  <si>
     <t>CAP CER 18PF 50V C0G 0402</t>
   </si>
   <si>
@@ -172,36 +202,15 @@
     <t>DIODE SCHOTTKY 30V 1A SOD323</t>
   </si>
   <si>
-    <t>FERRITE BEAD 220 OHM 0402 1LN</t>
-  </si>
-  <si>
-    <t>FIXED IND 4.7UH 520MA 650 MOHM</t>
-  </si>
-  <si>
     <t>NIDEC COPAL ELECTRONICS - CHS-01TA - DIP SWITCH, 1POS, SPST, SLIDE, SMD</t>
   </si>
   <si>
     <t>CONN MICRO SD R/A PUSH-PUSH SMD</t>
   </si>
   <si>
-    <t>1.54" 240x240 IPS Display</t>
-  </si>
-  <si>
     <t>SAMTEC - FTSH-105-01-F-DV - .050 X .050</t>
   </si>
   <si>
-    <t>IC TXRX RS422/485 20MBPS 10MSOP</t>
-  </si>
-  <si>
-    <t>IC MCU 100MHZ CORTEX M33 DUAL</t>
-  </si>
-  <si>
-    <t>IC REG LINEAR 3.3V 300MA SOT23-5</t>
-  </si>
-  <si>
-    <t>Charge Controller Li-Ion/Li-Pol 15mA to 500mA 4.2V 5-Pin SOT-23 T/R</t>
-  </si>
-  <si>
     <t>MOSFET P-CH 20V 1A SOT-23</t>
   </si>
   <si>
@@ -211,69 +220,99 @@
     <t>CONN HEADER PH SIDE 2POS 2MM SMD</t>
   </si>
   <si>
-    <t>20Hz ~ 10kHz Digital, I²S Microphone MEMS (Silicon) 1.8V Omnidirectional (-26dB ±3dB @ 94dB SPL) Solder Pads</t>
-  </si>
-  <si>
     <t>CONN RCPT STD MICRO USB TYPE B</t>
   </si>
   <si>
     <t>Manufacturer</t>
   </si>
   <si>
+    <t>Buy Display</t>
+  </si>
+  <si>
+    <t>Knowles Acoustics</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>Abracon</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>NXP Semiconductors</t>
+  </si>
+  <si>
+    <t>Intersil</t>
+  </si>
+  <si>
+    <t>Fairchild Semiconductor</t>
+  </si>
+  <si>
     <t>TDK Corporation</t>
   </si>
   <si>
     <t>Panasonic Electronic Components</t>
   </si>
   <si>
-    <t>Abracon</t>
-  </si>
-  <si>
     <t>Omron Electronics Inc-EMC Div</t>
   </si>
   <si>
     <t>Diodes Inc</t>
   </si>
   <si>
-    <t>Taiyo Yuden</t>
-  </si>
-  <si>
     <t>Nidec Copal</t>
   </si>
   <si>
     <t>Hirose Electric Co Ltd</t>
   </si>
   <si>
-    <t>Buy Display</t>
-  </si>
-  <si>
     <t>SAMTEC</t>
   </si>
   <si>
-    <t>Intersil</t>
-  </si>
-  <si>
-    <t>NXP Semiconductors</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
     <t>ON Semiconductor</t>
   </si>
   <si>
     <t>JST Sales America Inc</t>
   </si>
   <si>
-    <t>Knowles Acoustics</t>
-  </si>
-  <si>
     <t>FCI</t>
   </si>
   <si>
     <t>Manufacturer Part Number</t>
   </si>
   <si>
+    <t>ER-TFT1.54-1</t>
+  </si>
+  <si>
+    <t>SPH0645LM4H-B</t>
+  </si>
+  <si>
+    <t>MCP73832T-2ATI/OT</t>
+  </si>
+  <si>
+    <t>ABM3-16.000MHZ-B2-T</t>
+  </si>
+  <si>
+    <t>BKP1005EM221-T</t>
+  </si>
+  <si>
+    <t>CBC2012T4R7M</t>
+  </si>
+  <si>
+    <t>LPC55S69JEV98K</t>
+  </si>
+  <si>
+    <t>MCP1802T-3302I/OT</t>
+  </si>
+  <si>
+    <t>ISL3176EIUZ-T</t>
+  </si>
+  <si>
+    <t>FDV305N</t>
+  </si>
+  <si>
     <t>CGA2B1X7R1C104K050BC</t>
   </si>
   <si>
@@ -286,9 +325,6 @@
     <t>ERJ-2RKF1002X</t>
   </si>
   <si>
-    <t>ABM3-16.000MHZ-B2-T</t>
-  </si>
-  <si>
     <t>CGA2B2C0G1H180J050BA</t>
   </si>
   <si>
@@ -310,36 +346,15 @@
     <t>BAT760-7</t>
   </si>
   <si>
-    <t>BKP1005EM221-T</t>
-  </si>
-  <si>
-    <t>CBC2012T4R7M</t>
-  </si>
-  <si>
     <t>CHS-01TA</t>
   </si>
   <si>
     <t>DM3AT-SF-PEJM5</t>
   </si>
   <si>
-    <t>ER-TFT1.54-1</t>
-  </si>
-  <si>
     <t>FTSH-105-01-F-DV</t>
   </si>
   <si>
-    <t>ISL3176EIUZ-T</t>
-  </si>
-  <si>
-    <t>LPC55S69JEV98K</t>
-  </si>
-  <si>
-    <t>MCP1802T-3302I/OT</t>
-  </si>
-  <si>
-    <t>MCP73832T-2ATI/OT</t>
-  </si>
-  <si>
     <t>NTR1P02T1G</t>
   </si>
   <si>
@@ -347,9 +362,6 @@
   </si>
   <si>
     <t>S2B-PH-SM4-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t>SPH0645LM4H-B</t>
   </si>
   <si>
     <t>10103594-0001LF</t>
@@ -618,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -632,33 +644,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -668,18 +674,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -698,7 +704,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -931,9 +937,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -971,9 +977,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,26 +1012,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1058,26 +1047,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1254,7 +1226,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -1274,766 +1246,759 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="24" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27">
+        <v>1</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27">
+        <v>1</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1</v>
+      </c>
+      <c r="C16" s="25">
+        <v>7</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="27">
+        <v>2</v>
+      </c>
+      <c r="C17" s="27">
+        <v>2</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="25">
+        <v>3</v>
+      </c>
+      <c r="C18" s="25">
+        <v>5</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="27">
+        <v>4</v>
+      </c>
+      <c r="C19" s="27">
+        <v>6</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="25">
+        <v>6</v>
+      </c>
+      <c r="C20" s="25">
+        <v>2</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="27">
+        <v>7</v>
+      </c>
+      <c r="C21" s="27">
+        <v>2</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="25">
+        <v>8</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="27">
+        <v>9</v>
+      </c>
+      <c r="C23" s="27">
+        <v>1</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="25">
+        <v>10</v>
+      </c>
+      <c r="C24" s="25">
+        <v>1</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="27">
+        <v>11</v>
+      </c>
+      <c r="C25" s="27">
+        <v>4</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="25">
+        <v>12</v>
+      </c>
+      <c r="C26" s="25">
+        <v>3</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="27">
+        <v>15</v>
+      </c>
+      <c r="C27" s="27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="25">
+        <v>16</v>
+      </c>
+      <c r="C28" s="25">
+        <v>1</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="27">
+        <v>18</v>
+      </c>
+      <c r="C29" s="27">
+        <v>1</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="25">
+        <v>23</v>
+      </c>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="27">
+        <v>24</v>
+      </c>
+      <c r="C31" s="27">
+        <v>1</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="25">
+        <v>25</v>
+      </c>
+      <c r="C32" s="25">
+        <v>1</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="27">
+        <v>27</v>
+      </c>
+      <c r="C33" s="27">
+        <v>1</v>
+      </c>
+      <c r="D33" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="27">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27">
-        <v>7</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="28" t="s">
+      <c r="E33" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="29">
-        <v>2</v>
-      </c>
-      <c r="C7" s="29">
-        <v>2</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="F33" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="27">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27">
-        <v>5</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="28" t="s">
+      <c r="G33" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="29">
-        <v>4</v>
-      </c>
-      <c r="C9" s="29">
-        <v>6</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="27">
-        <v>5</v>
-      </c>
-      <c r="C10" s="27">
-        <v>1</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="29">
-        <v>6</v>
-      </c>
-      <c r="C11" s="29">
-        <v>2</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="27">
-        <v>7</v>
-      </c>
-      <c r="C12" s="27">
-        <v>2</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="29">
-        <v>8</v>
-      </c>
-      <c r="C13" s="29">
-        <v>1</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="27">
-        <v>9</v>
-      </c>
-      <c r="C14" s="27">
-        <v>1</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="29">
-        <v>10</v>
-      </c>
-      <c r="C15" s="29">
-        <v>1</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="27">
-        <v>11</v>
-      </c>
-      <c r="C16" s="27">
-        <v>4</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="29">
-        <v>12</v>
-      </c>
-      <c r="C17" s="29">
-        <v>3</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="27">
-        <v>13</v>
-      </c>
-      <c r="C18" s="27">
-        <v>1</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="29">
-        <v>14</v>
-      </c>
-      <c r="C19" s="29">
-        <v>1</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="27">
-        <v>15</v>
-      </c>
-      <c r="C20" s="27">
-        <v>1</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="29">
-        <v>16</v>
-      </c>
-      <c r="C21" s="29">
-        <v>1</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="30"/>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="27">
-        <v>17</v>
-      </c>
-      <c r="C22" s="27">
-        <v>1</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="29">
-        <v>18</v>
-      </c>
-      <c r="C23" s="29">
-        <v>1</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="30"/>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="27">
-        <v>19</v>
-      </c>
-      <c r="C24" s="27">
-        <v>1</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="29">
-        <v>20</v>
-      </c>
-      <c r="C25" s="29">
-        <v>1</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="30"/>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="27">
-        <v>21</v>
-      </c>
-      <c r="C26" s="27">
-        <v>1</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="29">
-        <v>22</v>
-      </c>
-      <c r="C27" s="29">
-        <v>1</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="30"/>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="27">
-        <v>23</v>
-      </c>
-      <c r="C28" s="27">
-        <v>2</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="29">
-        <v>24</v>
-      </c>
-      <c r="C29" s="29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="30"/>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="27">
-        <v>25</v>
-      </c>
-      <c r="C30" s="27">
-        <v>1</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="29">
-        <v>26</v>
-      </c>
-      <c r="C31" s="29">
-        <v>1</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="30"/>
-    </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="27">
-        <v>27</v>
-      </c>
-      <c r="C32" s="27">
-        <v>1</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -2047,9 +2012,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
@@ -2059,91 +2022,38 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="H36" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="E37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A6="Not Fitted"</formula>
     </cfRule>
